--- a/渲染相关/渲染流程.xlsx
+++ b/渲染相关/渲染流程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>渲染流水线的起点是CPU。也就是应用阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,38 @@
   </si>
   <si>
     <t>渲染透明的物体时要开启混合Blend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO(Vertex Buffer Objects)顶点缓冲对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点缓冲对象，是在显存在开辟的一段内存缓存区，用于存储顶点的各类信息（顶点坐标，顶点法向量，顶点的颜色等）。在渲染时，可以直接从VBO中取出顶点的各类属性，由于VBO在显存中，处理效率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以存在多个VBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAO(Vertex Arrary Object)顶点数组对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO保存了一个模型的顶点属性信息，每次绘制都要绑定这些信息，数据量多了之后这是一个很麻烦的操作。VAO可以把这些所有配置存储到一个对象中，没有只要绑定VAO就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAO是一个保存了所有顶点数据属性状态的集合，它存储了顶点数据的格式以及顶点数据所需VBO对象的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同VBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBO(ElementBufferObject)索引缓冲对象 IBO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,14 +792,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
